--- a/data/case1/18/Plm2_2.xlsx
+++ b/data/case1/18/Plm2_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.34334449558886604</v>
+        <v>-0.35844298829246668</v>
       </c>
       <c r="B1" s="0">
-        <v>0.3424516178880026</v>
+        <v>0.35739228422400515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.29634219549135921</v>
+        <v>-0.26350504993167334</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29268005353469562</v>
+        <v>0.26044434774690117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13249782081177131</v>
+        <v>-0.15749132295803392</v>
       </c>
       <c r="B3" s="0">
-        <v>0.131911189120693</v>
+        <v>0.15656906413101623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11991118924324695</v>
+        <v>-0.1445690642075661</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11940722825743499</v>
+        <v>0.14374372332863139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.1134072287265111</v>
+        <v>-0.13774372361127796</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11241919975515291</v>
+        <v>0.1360934167712653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.096716541065020589</v>
+        <v>-0.035121712964973462</v>
       </c>
       <c r="B6" s="0">
-        <v>0.096572350148993458</v>
+        <v>0.035105472264315374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.076572350716313409</v>
+        <v>-0.015105472609315385</v>
       </c>
       <c r="B7" s="0">
-        <v>0.076229814742813318</v>
+        <v>0.015094984881686813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.056229815315930409</v>
+        <v>0.0049050147726985571</v>
       </c>
       <c r="B8" s="0">
-        <v>0.055960869917044853</v>
+        <v>-0.0049165201877858777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.049960870410399316</v>
+        <v>0.010916519896225552</v>
       </c>
       <c r="B9" s="0">
-        <v>0.049740797364322908</v>
+        <v>-0.010938495908067836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.043740797863399905</v>
+        <v>0.01693849561717542</v>
       </c>
       <c r="B10" s="0">
-        <v>0.043712939133868645</v>
+        <v>-0.016943306007398462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.039212939623961773</v>
+        <v>0.021443305722073092</v>
       </c>
       <c r="B11" s="0">
-        <v>0.039166042637329923</v>
+        <v>-0.021462437058872297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.03316604313750604</v>
+        <v>0.027462436768159293</v>
       </c>
       <c r="B12" s="0">
-        <v>0.033029211468784236</v>
+        <v>-0.027586320345977189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.027029211974324063</v>
+        <v>0.033586320057896302</v>
       </c>
       <c r="B13" s="0">
-        <v>0.026996399490068157</v>
+        <v>-0.03365110726325149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.014996400034021917</v>
+        <v>0.045651106953298992</v>
       </c>
       <c r="B14" s="0">
-        <v>0.014987080406342557</v>
+        <v>-0.045777537362803322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0089870809142365005</v>
+        <v>0.051777537077601465</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0089829220237138685</v>
+        <v>-0.051969399306483588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0029829225321515995</v>
+        <v>0.0072439643302946166</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0029818212122973975</v>
+        <v>-0.0072530251436577764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044527958852427</v>
+        <v>0.013253024861445972</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994724356824</v>
+        <v>-0.013265226269796315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.03610942286517016</v>
+        <v>-0.083887234575040992</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096807516926788</v>
+        <v>0.083783934343919952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096807979782422</v>
+        <v>-0.074783934623554149</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02701361366239885</v>
+        <v>0.073992952641662058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013614129520406</v>
+        <v>-0.064992952928822234</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004277218434339</v>
+        <v>0.064821620127947455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042776861922746</v>
+        <v>-0.055821620416763196</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995318086334</v>
+        <v>0.055590928186678212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.15118223320109436</v>
+        <v>-0.093953025076091379</v>
       </c>
       <c r="B22" s="0">
-        <v>0.15032282051658008</v>
+        <v>0.09363801115928716</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.14132282100171345</v>
+        <v>-0.084638011449007955</v>
       </c>
       <c r="B23" s="0">
-        <v>0.13980967541242428</v>
+        <v>0.084127584307849723</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.097809676114572142</v>
+        <v>-0.042127584729214185</v>
       </c>
       <c r="B24" s="0">
-        <v>0.097052623987939235</v>
+        <v>0.041999999576296965</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.009702659169345651</v>
+        <v>-0.09497170409706257</v>
       </c>
       <c r="B25" s="0">
-        <v>0.009696489355501825</v>
+        <v>0.094722620805875124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0036964898347662256</v>
+        <v>-0.088722621097609533</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0036894989631335307</v>
+        <v>0.088402324878060767</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.002310500557503925</v>
+        <v>-0.082402325171535118</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0023386909667513223</v>
+        <v>0.081308733238840691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0083386904877098544</v>
+        <v>-0.075308733539001693</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0083592245619152905</v>
+        <v>0.074550899324575148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.017423419593976419</v>
+        <v>-0.062550899652402236</v>
       </c>
       <c r="B29" s="0">
-        <v>0.017359054544037633</v>
+        <v>0.062174829053649461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.069164889760246595</v>
+        <v>-0.042174829414490578</v>
       </c>
       <c r="B30" s="0">
-        <v>0.068717195905505069</v>
+        <v>0.042020759030384713</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019076587475155</v>
+        <v>-0.027020759375169234</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000730218897928</v>
+        <v>0.027000893938177839</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007307988154679</v>
+        <v>-0.0060008943065730236</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995121717831</v>
+        <v>0.0059999996891288987</v>
       </c>
     </row>
   </sheetData>
